--- a/Sprint2_Backlog_Updated.xlsx
+++ b/Sprint2_Backlog_Updated.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="49">
   <si>
     <t>User story</t>
   </si>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t xml:space="preserve"> yes but tested by rawda only</t>
+  </si>
+  <si>
+    <t>NOTE:-</t>
+  </si>
+  <si>
+    <t>couldn’t deploy on heroku because of late pushing!!</t>
   </si>
 </sst>
 </file>
@@ -185,7 +191,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,6 +210,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -217,12 +235,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,6 +1053,16 @@
       </c>
       <c r="G25" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
